--- a/data/trans_bre/P16B15-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B15-Clase-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,27</t>
+          <t>0,0; 25,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,83</t>
+          <t>0,0; 18,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,3</t>
+          <t>0,0; 33,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,82</t>
+          <t>0,0; 22,9</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,75</t>
+          <t>0,0; 21,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,61</t>
+          <t>0,0; 26,95</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,64</t>
+          <t>0,0; 8,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,46</t>
+          <t>0,0; 9,21</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 2,01</t>
+          <t>-7,48; 2,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,0</t>
+          <t>-11,98; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 2,05</t>
+          <t>-7,58; 2,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,81</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,0</t>
+          <t>-11,98; 0,0</t>
         </is>
       </c>
     </row>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,0</t>
+          <t>-4,13; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,0</t>
+          <t>-3,0; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,0</t>
+          <t>-4,13; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,0</t>
+          <t>-3,0; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,11</t>
+          <t>-1,18; 3,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,93</t>
+          <t>-0,5; 1,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,67</t>
+          <t>-0,25; 3,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,23</t>
+          <t>-1,17; 3,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,94</t>
+          <t>-0,5; 1,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,74</t>
+          <t>-0,25; 3,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B15-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B15-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
